--- a/Integer/Malejąca/Malejąca.xlsx
+++ b/Integer/Malejąca/Malejąca.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Ilośc elementów</t>
   </si>
@@ -35,12 +35,15 @@
   <si>
     <t>Insertion Sort</t>
   </si>
+  <si>
+    <t>Czas [sekundy]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +51,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -65,12 +95,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1847,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2331,292 @@
         <v>125</v>
       </c>
     </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>50000</v>
+      </c>
+      <c r="C24" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="F24" s="9">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>60000</v>
+      </c>
+      <c r="C25" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E25" s="11">
+        <v>13.6</v>
+      </c>
+      <c r="F25" s="11">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>70000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E26" s="11">
+        <v>19</v>
+      </c>
+      <c r="F26" s="11">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>80000</v>
+      </c>
+      <c r="C27" s="10">
+        <v>45.6</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E27" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="F27" s="11">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>90000</v>
+      </c>
+      <c r="C28" s="10">
+        <v>57.6</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E28" s="11">
+        <v>31.6</v>
+      </c>
+      <c r="F28" s="11">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C29" s="10">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E29" s="11">
+        <v>38</v>
+      </c>
+      <c r="F29" s="11">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>110000</v>
+      </c>
+      <c r="C30" s="10">
+        <v>85.6</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="E30" s="11">
+        <v>49.4</v>
+      </c>
+      <c r="F30" s="11">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>120000</v>
+      </c>
+      <c r="C31" s="10">
+        <v>123.6</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="E31" s="11">
+        <v>58.1</v>
+      </c>
+      <c r="F31" s="11">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>130000</v>
+      </c>
+      <c r="C32" s="10">
+        <v>132.33000000000001</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E32" s="11">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="F32" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>140000</v>
+      </c>
+      <c r="C33" s="10">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="11">
+        <v>78.7</v>
+      </c>
+      <c r="F33" s="11">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>150000</v>
+      </c>
+      <c r="C34" s="10">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="11">
+        <v>94.8</v>
+      </c>
+      <c r="F34" s="11">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>160000</v>
+      </c>
+      <c r="C35" s="10">
+        <v>153.1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="11">
+        <v>98.8</v>
+      </c>
+      <c r="F35" s="11">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>170000</v>
+      </c>
+      <c r="C36" s="10">
+        <v>172.6</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="E36" s="11">
+        <v>112.2</v>
+      </c>
+      <c r="F36" s="11">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>180000</v>
+      </c>
+      <c r="C37" s="10">
+        <v>195.2</v>
+      </c>
+      <c r="D37" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E37" s="11">
+        <v>125</v>
+      </c>
+      <c r="F37" s="11">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>190000</v>
+      </c>
+      <c r="C38" s="10">
+        <v>250.8</v>
+      </c>
+      <c r="D38" s="11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>139.4</v>
+      </c>
+      <c r="F38" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C22:F22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
